--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_DLNhatBinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_DLNhatBinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -646,9 +646,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,21 +683,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1024,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1105,58 +1105,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1181,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1282,7 +1282,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1458,7 +1458,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2776,13 +2776,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2794,6 +2787,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2804,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2837,43 +2837,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2918,58 +2918,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -2994,49 +2994,77 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44495</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44495</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034669635</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3067,7 +3095,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3096,7 +3124,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3153,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3154,7 +3182,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3183,7 +3211,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3212,7 +3240,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3243,7 +3271,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3272,7 +3300,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3301,7 +3329,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3330,7 +3358,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3513,7 +3541,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3726,7 +3754,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3918,7 +3946,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3982,7 +4010,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4561,13 +4589,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4579,6 +4600,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
